--- a/system_template/data/en/mail_template.xlsx
+++ b/system_template/data/en/mail_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\vendor\exceedone\exment\system_template\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A030635-F093-4D96-BC80-C985946F9C70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC08195-87E8-4106-AAF7-C2AF18937949}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25335" yWindow="180" windowWidth="25470" windowHeight="15420" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -202,6 +202,17 @@
   </si>
   <si>
     <t>Sent to the person who logged in with ID/password.\nRegister Google 2-step verification.\n\n[Registration URL]\n${2factor_google_register_url}\n[expiration date]\n${valid_period_datetime}\n\n* If you do not remember logging in but received this email, your account may have been used illegally. We recommend that you change your password.\n* If the expiration date has expired, please enter your ID/password again to log in.</t>
+  </si>
+  <si>
+    <t>password_notify_header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]Password notification header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>***************************************************************************\nThis email is automatically encrypted as an attachment.\nYou will receive a password from the sender later.\n***************************************************************************\n\n</t>
   </si>
 </sst>
 </file>
@@ -568,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -804,6 +815,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/system_template/data/en/mail_template.xlsx
+++ b/system_template/data/en/mail_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\vendor\exceedone\exment\system_template\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC08195-87E8-4106-AAF7-C2AF18937949}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818AFB11-BB6B-4E66-BEF6-AEE42D0E1679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The notification date set by the system for the data registered in ${system:site_name} has been reached. Please check the contents after login.\n\n[registered content]\n-Notification name:${notify:notify_view_name}\n-Target table:${target_table}\n-Target data:${value_url}\n・ ${Notify_target_column_key}:${notify_target_column_value}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Send an authentication code to start two-step authentication for the entire system.\n\n[authentication code]\n${verify_code}\n[expiration date]\n${valid_period_datetime}\n\nEnter the information on the system setting screen.</t>
   </si>
   <si>
@@ -213,6 +209,10 @@
   </si>
   <si>
     <t>***************************************************************************\nThis email is automatically encrypted as an attachment.\nYou will receive a password from the sender later.\n***************************************************************************\n\n</t>
+  </si>
+  <si>
+    <t>The notification date set by the system for the data registered in ${system:site_name} has been reached. Please check the contents after login.\n\n[registered content]\n-Notification name:${notify:notify_view_name}\n-Target table:${target_table}\n-Target data:${value_url/link=true}\n・ ${Notify_target_column_key}:${notify_target_column_value}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -724,7 +724,7 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -744,7 +744,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -795,7 +795,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -812,12 +812,12 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -826,10 +826,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/system_template/data/en/mail_template.xlsx
+++ b/system_template/data/en/mail_template.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-sat\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818AFB11-BB6B-4E66-BEF6-AEE42D0E1679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF44B9DE-0E03-480C-8AE3-BE069FF375EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -189,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Data for ${target_table} has been ${create_or_update} by user ${updated_user}.\nPlease check the following.\n\n${create_or_update} User: ${target_user}\n${create_or_update} Date: ${target_datetime}\n${create_or_update} Data: ${value_url/link=true}\n${free_space}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sent to the person who logged in with ID/password.\n\n[authentication code]\n${verify_code}\n[expiration date]\n${valid_period_datetime}\n\n*If you do not remember logging in but received this email, your account may have been used illegally. We recommend that you change your password.\n*If the expiration date has expired, please enter your ID/password again to log in.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,6 +217,10 @@
   </si>
   <si>
     <t>The notification date set by the system for the data registered in ${system:site_name} has been reached. Please check the contents after login.\n\n[registered content]\n-Notification name:${notify:notify_view_name}\n-Target table:${target_table}\n-Target data:${value_url/link=true}\n・ ${Notify_target_column_key}:${notify_target_column_value}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data for ${target_table} has been ${create_or_update} by user ${target_user}.\nPlease check the following.\n\n${create_or_update} User: ${target_user}\n${create_or_update} Date: ${target_datetime}\n${create_or_update} Data: ${value_url/link=true}\n${free_space}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,12 +591,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -627,7 +636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -647,7 +656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -667,7 +676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -687,7 +696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -707,7 +716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -724,10 +733,10 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -744,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -761,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -778,10 +787,10 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -798,7 +807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -815,9 +824,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -826,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/system_template/data/en/mail_template.xlsx
+++ b/system_template/data/en/mail_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-sat\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exment_eng\vendor\exceedone\exment\system_template\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF44B9DE-0E03-480C-8AE3-BE069FF375EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126CFBE9-EE4D-4748-A2B0-FE765D6975A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView xWindow="5400" yWindow="2955" windowWidth="21120" windowHeight="11865" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -221,6 +221,70 @@
   </si>
   <si>
     <t>Data for ${target_table} has been ${create_or_update} by user ${target_user}.\nPlease check the following.\n\n${create_or_update} User: ${target_user}\n${create_or_update} Date: ${target_datetime}\n${create_or_update} Data: ${value_url/link=true}\n${free_space}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>workflow_notify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_complete_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_complete_admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Workflow execution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public form completion notification (general user)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public form completion notification (administrator)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public form error notification (administrator)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]Input is complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]Workflow ${workflow_action} has been executed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]Input was made on public form ${publicform:public_form_view_name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]Some errors occurred on public form ${publicform:public_form_view_name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To ${user:user_name}\n\n${workflow:action_name} has been executed by ${workflow:action_user}.\nCheck the data and what was done, and then take the following actions.\n\nTarget data : ${value_url/link=true}\nData creation user : ${created_user}\nExecuted action : ${workflow:action_name}\nAction execution user : ${workflow:action_user}\nCurrent Status : ${workflow:status_name}\n\nComment : \n${workflow:comment}\n\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thank you for your input. \nInput is complete. Please check your input.\n\n*Input data\n${publicform:inputs}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To ${user:user_name}\n\nYou have entered the data for the public form ${publicform:public_form_view_name}.\nPlease check the entered data.\n\n*Input data\n${publicform:inputs}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To ${user:user_name}\n\nSome errors occurred while filling out the public form ${publicform:public_form_view_name}.\nPlease check the entered contents and the error contents.\n\n*Input data\n${publicform:inputs}\n\n*Error summary\n${error:message}\n\n*Error detail\n${error:stacktrace}\n\n</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -588,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -841,6 +905,74 @@
         <v>54</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/system_template/data/en/mail_template.xlsx
+++ b/system_template/data/en/mail_template.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exment_eng\vendor\exceedone\exment\system_template\data\en\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126CFBE9-EE4D-4748-A2B0-FE765D6975A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2955" windowWidth="21120" windowHeight="11865" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView windowWidth="27945" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -75,249 +68,560 @@
     <t>mail_footer</t>
   </si>
   <si>
+    <t>Mail footer</t>
+  </si>
+  <si>
     <t>footer</t>
   </si>
   <si>
+    <t>(Mail footer)</t>
+  </si>
+  <si>
+    <t>--------------\nThis email is automatically sent by the system.\nPlease note that you cannot reply to this email.\n\n[${system:site_name}]\nURL ${system:system_url/link=true}</t>
+  </si>
+  <si>
     <t>create_user</t>
   </si>
   <si>
+    <t>New user registration</t>
+  </si>
+  <si>
     <t>body</t>
   </si>
   <si>
+    <t>[${system:site_name}]New user registration</t>
+  </si>
+  <si>
+    <t>${user:user_name}\nYour account has been newly added by the system administrator. Please check your user information.\n\nUser code:${user:user_code}\nEmail address: ${user:email}\nPassword:${user:password}\n* To improve security, we recommend that you change your password after logging in.\n\n${system:site_name} can log in here.\n${system:login_url/link=true}</t>
+  </si>
+  <si>
     <t>reset_password</t>
   </si>
   <si>
+    <t>Password reset</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]Password reset</t>
+  </si>
+  <si>
+    <t>Reset the password. Please re-register your password from the URL below.\n\n${system:password_reset_url}</t>
+  </si>
+  <si>
     <t>reset_password_admin</t>
   </si>
   <si>
+    <t>Password reset (administrator)</t>
+  </si>
+  <si>
+    <t>Password reset was performed by the administrator. Please check your user information.\n\nUser code: ${user:user_code}\nEmail address: ${user:email}\nPassword: ${user:password}\n*To improve security, we recommend that you change your password after logging in.\n\n${system:site_name} can log in here.\n${system:login_url/link=true}</t>
+  </si>
+  <si>
     <t>time_notify</t>
   </si>
   <si>
+    <t>Deadline notice</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]Deadline notice</t>
+  </si>
+  <si>
+    <t>The notification date set by the system for the data registered in ${system:site_name} has been reached. Please check the contents after login.\n\n[registered content]\n-Notification name:${notify:notify_view_name}\n-Target table:${target_table}\n-Target data:${value_url/link=true}\n・ ${Notify_target_column_key}:${notify_target_column_value}</t>
+  </si>
+  <si>
     <t>data_saved_notify</t>
   </si>
   <si>
+    <t>Data creation/update/share/comment notification</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]Data has been ${create_or_update}</t>
+  </si>
+  <si>
+    <t>Data for ${target_table} has been ${create_or_update} by user ${target_user}.\nPlease check the following.\n\n${create_or_update} User: ${target_user}\n${create_or_update} Date: ${target_datetime}\n${create_or_update} Data: ${value_url/link=true}\n${free_space}</t>
+  </si>
+  <si>
     <t>verify_2factor</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-step verification</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]2-step verification</t>
+  </si>
+  <si>
+    <t>Sent to the person who logged in with ID/password.\n\n[authentication code]\n${verify_code}\n[expiration date]\n${valid_period_datetime}\n\n*If you do not remember logging in but received this email, your account may have been used illegally. We recommend that you change your password.\n*If the expiration date has expired, please enter your ID/password again to log in.</t>
   </si>
   <si>
     <t>verify_2factor_google</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google 2-step verification registration</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]Google 2-step verification registration</t>
+  </si>
+  <si>
+    <t>Sent to the person who logged in with ID/password.\nRegister Google 2-step verification.\n\n[Registration URL]\n${2factor_google_register_url}\n[expiration date]\n${valid_period_datetime}\n\n* If you do not remember logging in but received this email, your account may have been used illegally. We recommend that you change your password.\n* If the expiration date has expired, please enter your ID/password again to log in.</t>
   </si>
   <si>
     <t>verify_2factor_system</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-step verification_system communication confirmation</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]2-step verification_system communication confirmation</t>
+  </si>
+  <si>
+    <t>Send an authentication code to start two-step authentication for the entire system.\n\n[authentication code]\n${verify_code}\n[expiration date]\n${valid_period_datetime}\n\nEnter the information on the system setting screen.</t>
   </si>
   <si>
     <t>password_notify</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>New user registration</t>
-  </si>
-  <si>
-    <t>Password reset</t>
-  </si>
-  <si>
-    <t>Password reset (administrator)</t>
-  </si>
-  <si>
-    <t>Deadline notice</t>
-  </si>
-  <si>
-    <t>Data creation/update/share/comment notification</t>
-  </si>
-  <si>
-    <t>2-step verification</t>
-  </si>
-  <si>
-    <t>Google 2-step verification registration</t>
-  </si>
-  <si>
-    <t>2-step verification_system communication confirmation</t>
   </si>
   <si>
     <t>Password notification</t>
   </si>
   <si>
-    <t>Mail footer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(Mail footer)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[${system:site_name}]New user registration</t>
-  </si>
-  <si>
-    <t>[${system:site_name}]Password reset</t>
-  </si>
-  <si>
-    <t>[${system:site_name}]Deadline notice</t>
-  </si>
-  <si>
-    <t>[${system:site_name}]Data has been ${create_or_update}</t>
-  </si>
-  <si>
-    <t>[${system:site_name}]2-step verification</t>
-  </si>
-  <si>
-    <t>[${system:site_name}]Google 2-step verification registration</t>
-  </si>
-  <si>
-    <t>[${system:site_name}]2-step verification_system communication confirmation</t>
-  </si>
-  <si>
     <t>[${system:site_name}]Password notification</t>
   </si>
   <si>
-    <t>--------------\nThis email is automatically sent by the system.\nPlease note that you cannot reply to this email.\n\n[${system:site_name}]\nURL ${system:system_url/link=true}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${user:user_name}\nYour account has been newly added by the system administrator. Please check your user information.\n\nUser code:${user:user_code}\nEmail address: ${user:email}\nPassword:${user:password}\n* To improve security, we recommend that you change your password after logging in.\n\n${system:site_name} can log in here.\n${system:login_url/link=true}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reset the password. Please re-register your password from the URL below.\n\n${system:password_reset_url}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Password reset was performed by the administrator. Please check your user information.\n\nUser code: ${user:user_code}\nEmail address: ${user:email}\nPassword: ${user:password}\n*To improve security, we recommend that you change your password after logging in.\n\n${system:site_name} can log in here.\n${system:login_url/link=true}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Send an authentication code to start two-step authentication for the entire system.\n\n[authentication code]\n${verify_code}\n[expiration date]\n${valid_period_datetime}\n\nEnter the information on the system setting screen.</t>
-  </si>
-  <si>
     <t>We will inform you of the decompression password for the file you sent earlier.\n\n${zip_password}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sent to the person who logged in with ID/password.\n\n[authentication code]\n${verify_code}\n[expiration date]\n${valid_period_datetime}\n\n*If you do not remember logging in but received this email, your account may have been used illegally. We recommend that you change your password.\n*If the expiration date has expired, please enter your ID/password again to log in.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sent to the person who logged in with ID/password.\nRegister Google 2-step verification.\n\n[Registration URL]\n${2factor_google_register_url}\n[expiration date]\n${valid_period_datetime}\n\n* If you do not remember logging in but received this email, your account may have been used illegally. We recommend that you change your password.\n* If the expiration date has expired, please enter your ID/password again to log in.</t>
   </si>
   <si>
     <t>password_notify_header</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[${system:site_name}]Password notification header</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>***************************************************************************\nThis email is automatically encrypted as an attachment.\nYou will receive a password from the sender later.\n***************************************************************************\n\n</t>
   </si>
   <si>
-    <t>The notification date set by the system for the data registered in ${system:site_name} has been reached. Please check the contents after login.\n\n[registered content]\n-Notification name:${notify:notify_view_name}\n-Target table:${target_table}\n-Target data:${value_url/link=true}\n・ ${Notify_target_column_key}:${notify_target_column_value}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data for ${target_table} has been ${create_or_update} by user ${target_user}.\nPlease check the following.\n\n${create_or_update} User: ${target_user}\n${create_or_update} Date: ${target_datetime}\n${create_or_update} Data: ${value_url/link=true}\n${free_space}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>workflow_notify</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Workflow execution</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]Workflow ${workflow_action} has been executed</t>
+  </si>
+  <si>
+    <t>To ${user:user_name}\n\n${workflow:action_name} has been executed by ${workflow:action_user}.\nCheck the data and what was done, and then take the following actions.\n\nTarget data : ${value_url/link=true}\nData creation user : ${created_user}\nExecuted action : ${workflow:action_name}\nAction execution user : ${workflow:action_user}\nCurrent Status : ${workflow:status_name}\n\nComment : \n${workflow:comment}\n\n</t>
   </si>
   <si>
     <t>publicform_complete_user</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public form completion notification (general user)</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]Input is complete</t>
+  </si>
+  <si>
+    <t>Thank you for your input. \nInput is complete. Please check your input.\n\n*Input data\n${publicform:inputs}</t>
   </si>
   <si>
     <t>publicform_complete_admin</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public form completion notification (administrator)</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]Input was made on public form ${publicform:public_form_view_name}</t>
+  </si>
+  <si>
+    <t>To ${user:user_name}\n\nYou have entered the data for the public form ${publicform:public_form_view_name}.\nPlease check the entered data.\n\n*Input data\n${publicform:inputs}</t>
   </si>
   <si>
     <t>publicform_error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Workflow execution</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Public form completion notification (general user)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Public form completion notification (administrator)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Public form error notification (administrator)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[${system:site_name}]Input is complete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[${system:site_name}]Workflow ${workflow_action} has been executed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[${system:site_name}]Input was made on public form ${publicform:public_form_view_name}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[${system:site_name}]Some errors occurred on public form ${publicform:public_form_view_name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To ${user:user_name}\n\n${workflow:action_name} has been executed by ${workflow:action_user}.\nCheck the data and what was done, and then take the following actions.\n\nTarget data : ${value_url/link=true}\nData creation user : ${created_user}\nExecuted action : ${workflow:action_name}\nAction execution user : ${workflow:action_user}\nCurrent Status : ${workflow:status_name}\n\nComment : \n${workflow:comment}\n\n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thank you for your input. \nInput is complete. Please check your input.\n\n*Input data\n${publicform:inputs}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To ${user:user_name}\n\nYou have entered the data for the public form ${publicform:public_form_view_name}.\nPlease check the entered data.\n\n*Input data\n${publicform:inputs}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>To ${user:user_name}\n\nSome errors occurred while filling out the public form ${publicform:public_form_view_name}.\nPlease check the entered contents and the error contents.\n\n*Input data\n${publicform:inputs}\n\n*Error summary\n${error:message}\n\n*Error detail\n${error:stacktrace}\n\n</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sendmail_error</t>
+  </si>
+  <si>
+    <t>Email sending error</t>
+  </si>
+  <si>
+    <t>An error occurred while sending email.</t>
+  </si>
+  <si>
+    <t>Failed to send email. Please check your email settings and system log file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,13 +629,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,17 +885,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -431,26 +1021,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -483,23 +1056,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,26 +1197,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -700,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -708,274 +1259,291 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>